--- a/VerveStacks_BRA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
+++ b/VerveStacks_BRA/SuppXLS/scen_tsparameters_s2_w_p2_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7188A31B-514C-44A7-8F0B-04B02D2B1CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9BB6B8A-CD37-4C2C-A97B-C45802436E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2616,13 +2616,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S1aH3,S2b0302h09,S2b0302h16,S4d1214h08,S4e1217h11,S4e1217h13,S4e1218h13,S4e1221h12,S4e1221h13,S4e1222h17,S2c0303h08,S4d1210h16,S4d1211h17,S4d1212h11,S4d1213h10,S4d1214h09,S4d1215h09,S4d1215h16,S4e1217h15,S4e1220h15,S4e1221h11,S4e1222h15,S1aH6,S2c0303h15,S4d1210h17,S4d1212h18,S4e1218h08,S4e1218h12,S4e1218h18,S4e1219h18,S4e1220h10,S4e1220h13,S2b0302h12,S3aH2,S4d1210h09,S4d1210h10,S4d1210h12,S4d1210h13,S4d1210h18,S4d1212h16,S4d1213h12,S4d1215h07,S4d1215h10,S4d1215h15,S4e1219h17,S4e1222h14,S2b0302h10,S2b0302h11,S4d1211h08,S4d1212h17,S4d1213h15,S4d1214h14,S4d1215h08,S4d1215h12,S4d1216h18,S4e1217h08,S4e1217h09,S4e1218h11,S4e1220h18,S4e1222h09,S1aH5,S2aH4,S2aH5,S4d1210h14,S4e1219h13,S4e1221h10,S4e1222h11,S2c0303h12,S3aH3,S4d1212h08,S4d1213h08,S4d1214h15,S4d1216h12,S4e1217h12,S4e1218h14,S4e1221h09,S4e1223h18,S2aH7,S3aH4,S4aH3,S4aH4,S4d1211h11,S4d1213h13,S4e1218h17,S4e1220h09,S4e1220h11,S4e1221h08,S4e1222h10,S4e1222h12,S4e1223h10,S2c0303h09,S2c0303h13,S2c0303h14,S3aH7,S4d1211h10,S4d1211h15,S4d1213h09,S4d1215h14,S4d1216h13,S4d1216h14,S4e1217h10,S4e1221h07,S4e1221h14,S4e1223h13,S1aH2,S1aH7,S2aH3,S2b0302h15,S2b0302h18,S3aH6,S4aH7,S4d1210h11,S4d1212h14,S4d1213h14,S4d1213h18,S4d1215h18,S4d1216h09,S4d1216h10,S4d1216h11,S4e1217h07,S4e1218h07,S4e1219h07,S4e1219h08,S4e1220h08,S4e1221h16,S2b0302h13,S2b0302h17,S2c0303h10,S4d1210h07,S4d1210h15,S4d1211h09,S4d1212h10,S4d1213h16,S4d1214h13,S4d1214h18,S4d1215h13,S4e1218h09,S4e1219h16,S4e1220h12,S2c0303h07,S2c0303h11,S4aH2,S4d1211h14,S4d1212h07,S4d1212h13,S4d1214h10,S4d1215h17,S4e1220h17,S1aH4,S2aH2,S2b0302h14,S4aH6,S4d1210h08,S4d1211h13,S4d1211h18,S4d1213h11,S4d1214h16,S4d1215h11,S4d1216h17,S4e1217h14,S4e1219h10,S4e1219h12,S4e1220h14,S4e1221h18,S4e1222h07,S4e1223h08,S4e1223h12,S4e1223h16,S2aH6,S2b0302h07,S2b0302h08,S2c0303h16,S3aH5,S4d1212h12,S4d1213h07,S4d1216h16,S4e1218h15,S4e1218h16,S4e1219h09,S4e1220h07,S4e1221h17,S4e1222h16,S4e1223h11,S2c0303h17,S4aH5,S4d1212h09,S4d1212h15,S4d1214h07,S4d1216h08,S4e1217h16,S4e1217h18,S4e1218h10,S4e1219h11,S4e1219h14,S4e1221h15,S4e1222h13,S4e1223h15,S4e1223h17,S2c0303h18,S4d1211h07,S4d1211h12,S4d1211h16,S4d1213h17,S4d1214h11,S4d1214h12,S4d1214h17,S4d1216h07,S4d1216h15,S4e1217h17,S4e1219h15,S4e1220h16,S4e1222h08,S4e1222h18,S4e1223h07,S4e1223h09,S4e1223h14</t>
+    <t>S2c0303h09,S2c0303h13,S2c0303h14,S3aH7,S4d1211h10,S4d1211h15,S4d1213h09,S4d1215h14,S4d1216h13,S4d1216h14,S4e1217h10,S4e1221h07,S4e1221h14,S4e1223h13,S2c0303h17,S4aH5,S4d1212h09,S4d1212h15,S4d1214h07,S4d1216h08,S4e1217h16,S4e1217h18,S4e1218h10,S4e1219h11,S4e1219h14,S4e1221h15,S4e1222h13,S4e1223h15,S4e1223h17,S2b0302h10,S2b0302h11,S4d1211h08,S4d1212h17,S4d1213h15,S4d1214h14,S4d1215h08,S4d1215h12,S4d1216h18,S4e1217h08,S4e1217h09,S4e1218h11,S4e1220h18,S4e1222h09,S2c0303h07,S2c0303h11,S4aH2,S4d1211h14,S4d1212h07,S4d1212h13,S4d1214h10,S4d1215h17,S4e1220h17,S2c0303h12,S3aH3,S4d1212h08,S4d1213h08,S4d1214h15,S4d1216h12,S4e1217h12,S4e1218h14,S4e1221h09,S4e1223h18,S1aH6,S2c0303h15,S4d1210h17,S4d1212h18,S4e1218h08,S4e1218h12,S4e1218h18,S4e1219h18,S4e1220h10,S4e1220h13,S2c0303h18,S4d1211h07,S4d1211h12,S4d1211h16,S4d1213h17,S4d1214h11,S4d1214h12,S4d1214h17,S4d1216h07,S4d1216h15,S4e1217h17,S4e1219h15,S4e1220h16,S4e1222h08,S4e1222h18,S4e1223h07,S4e1223h09,S4e1223h14,S1aH5,S2aH4,S2aH5,S4d1210h14,S4e1219h13,S4e1221h10,S4e1222h11,S2b0302h12,S3aH2,S4d1210h09,S4d1210h10,S4d1210h12,S4d1210h13,S4d1210h18,S4d1212h16,S4d1213h12,S4d1215h07,S4d1215h10,S4d1215h15,S4e1219h17,S4e1222h14,S1aH3,S2b0302h09,S2b0302h16,S4d1214h08,S4e1217h11,S4e1217h13,S4e1218h13,S4e1221h12,S4e1221h13,S4e1222h17,S1aH4,S2aH2,S2b0302h14,S4aH6,S4d1210h08,S4d1211h13,S4d1211h18,S4d1213h11,S4d1214h16,S4d1215h11,S4d1216h17,S4e1217h14,S4e1219h10,S4e1219h12,S4e1220h14,S4e1221h18,S4e1222h07,S4e1223h08,S4e1223h12,S4e1223h16,S2aH6,S2b0302h07,S2b0302h08,S2c0303h16,S3aH5,S4d1212h12,S4d1213h07,S4d1216h16,S4e1218h15,S4e1218h16,S4e1219h09,S4e1220h07,S4e1221h17,S4e1222h16,S4e1223h11,S2aH7,S3aH4,S4aH3,S4aH4,S4d1211h11,S4d1213h13,S4e1218h17,S4e1220h09,S4e1220h11,S4e1221h08,S4e1222h10,S4e1222h12,S4e1223h10,S1aH2,S1aH7,S2aH3,S2b0302h15,S2b0302h18,S3aH6,S4aH7,S4d1210h11,S4d1212h14,S4d1213h14,S4d1213h18,S4d1215h18,S4d1216h09,S4d1216h10,S4d1216h11,S4e1217h07,S4e1218h07,S4e1219h07,S4e1219h08,S4e1220h08,S4e1221h16,S2c0303h08,S4d1210h16,S4d1211h17,S4d1212h11,S4d1213h10,S4d1214h09,S4d1215h09,S4d1215h16,S4e1217h15,S4e1220h15,S4e1221h11,S4e1222h15,S2b0302h13,S2b0302h17,S2c0303h10,S4d1210h07,S4d1210h15,S4d1211h09,S4d1212h10,S4d1213h16,S4d1214h13,S4d1214h18,S4d1215h13,S4e1218h09,S4e1219h16,S4e1220h12</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S2b0302h19,S2b0302h20,S2b0302h22,S4d1210h03,S4d1212h01,S4d1213h02,S4d1213h04,S4d1213h20,S4d1213h23,S4e1218h24,S4e1223h01,S4e1223h02,S2b0302h24,S2c0303h24,S4aH8,S4d1210h20,S4d1213h06,S4d1215h03,S4d1216h02,S4d1216h06,S4e1217h06,S4e1219h20,S4e1220h21,S4e1222h05,S4e1223h20,S2b0302h21,S2c0303h19,S4d1211h22,S4d1213h03,S4d1214h04,S4d1215h19,S4d1215h22,S4e1217h04,S4e1217h21,S4e1218h01,S4e1219h01,S4e1219h24,S4e1220h20,S4e1223h19,S2c0303h03,S3aH8,S4d1210h04,S4d1210h23,S4d1215h06,S4d1216h03,S4d1216h23,S4e1218h02,S4e1220h06,S4e1221h22,S4e1223h04,S4e1223h21,S1aH1,S2b0302h02,S4d1210h24,S4d1211h03,S4d1211h04,S4d1211h20,S4d1215h20,S4e1218h06,S4e1218h20,S4e1219h04,S4e1219h21,S4e1220h05,S4e1222h02,S4e1222h04,S4e1222h21,S4e1223h03,S2b0302h04,S2c0303h21,S2c0303h22,S4d1212h19,S4d1212h20,S4d1212h21,S4d1213h24,S4d1214h03,S4d1215h24,S4e1217h19,S4e1217h22,S4e1221h19,S4e1221h21,S4e1222h20,S2c0303h20,S4d1213h19,S4d1214h06,S4d1214h23,S4d1216h04,S4e1217h24,S4e1221h05,S4e1222h03,S4e1223h22,S2b0302h01,S3aH9,S4d1213h05,S4d1213h21,S4d1215h04,S4e1218h23,S4e1219h19,S4e1219h23,S4e1220h01,S4e1221h02,S4e1221h06,S2aH8,S2b0302h03,S2c0303h23,S4d1210h05,S4d1210h22,S4d1211h24,S4d1212h03,S4d1214h21,S4d1216h22,S4d1216h24,S4e1217h03,S4e1217h05,S4e1217h20,S4e1218h04,S4e1219h03,S4e1220h03,S4e1222h06,S4e1222h24,S2b0302h06,S2c0303h04,S4d1210h02,S4d1211h01,S4d1212h06,S4d1214h02,S4d1214h20,S4d1216h19,S4e1219h05,S4e1219h22,S4e1220h02,S4e1220h04,S4e1220h24,S4e1221h01,S4e1221h03,S4e1221h04,S4e1223h05,S2c0303h02,S2c0303h06,S3aH1,S4aH9,S4d1212h05,S4d1214h01,S4d1214h05,S4d1214h22,S4d1215h05,S4e1217h23,S4e1220h23,S4e1222h19,S2aH1,S2aH9,S2b0302h23,S4d1211h06,S4d1212h23,S4d1213h01,S4d1214h19,S4d1214h24,S4d1216h21,S4e1217h02,S4e1222h22,S1aH9,S4aH1,S4d1210h19,S4d1212h24,S4d1213h22,S4d1215h21,S4d1216h01,S4d1216h05,S4e1218h03,S4e1218h05,S4e1220h22,S4e1221h24,S4e1222h01,S4e1223h06,S4e1223h24,S1aH8,S2c0303h05,S4d1210h21,S4d1211h21,S4d1211h23,S4d1215h02,S4d1215h23,S4e1218h22,S4e1220h19,S4e1221h20,S4e1222h23,S4d1211h05,S4d1212h02,S4d1212h04,S4d1215h01,S4e1217h01,S4e1219h06,S4e1221h23,S2b0302h05,S2c0303h01,S4d1210h01,S4d1210h06,S4d1211h02,S4d1211h19,S4d1212h22,S4d1216h20,S4e1218h19,S4e1218h21,S4e1219h02,S4e1223h23</t>
+    <t>S2aH8,S2b0302h03,S2c0303h23,S4d1210h05,S4d1210h22,S4d1211h24,S4d1212h03,S4d1214h21,S4d1216h22,S4d1216h24,S4e1217h03,S4e1217h05,S4e1217h20,S4e1218h04,S4e1219h03,S4e1220h03,S4e1222h06,S4e1222h24,S4d1211h05,S4d1212h02,S4d1212h04,S4d1215h01,S4e1217h01,S4e1219h06,S4e1221h23,S1aH1,S2b0302h02,S4d1210h24,S4d1211h03,S4d1211h04,S4d1211h20,S4d1215h20,S4e1218h06,S4e1218h20,S4e1219h04,S4e1219h21,S4e1220h05,S4e1222h02,S4e1222h04,S4e1222h21,S4e1223h03,S2aH1,S2aH9,S2b0302h23,S4d1211h06,S4d1212h23,S4d1213h01,S4d1214h19,S4d1214h24,S4d1216h21,S4e1217h02,S4e1222h22,S2c0303h20,S4d1213h19,S4d1214h06,S4d1214h23,S4d1216h04,S4e1217h24,S4e1221h05,S4e1222h03,S4e1223h22,S2b0302h21,S2c0303h19,S4d1211h22,S4d1213h03,S4d1214h04,S4d1215h19,S4d1215h22,S4e1217h04,S4e1217h21,S4e1218h01,S4e1219h01,S4e1219h24,S4e1220h20,S4e1223h19,S2b0302h05,S2c0303h01,S4d1210h01,S4d1210h06,S4d1211h02,S4d1211h19,S4d1212h22,S4d1216h20,S4e1218h19,S4e1218h21,S4e1219h02,S4e1223h23,S2b0302h04,S2c0303h21,S2c0303h22,S4d1212h19,S4d1212h20,S4d1212h21,S4d1213h24,S4d1214h03,S4d1215h24,S4e1217h19,S4e1217h22,S4e1221h19,S4e1221h21,S4e1222h20,S2c0303h03,S3aH8,S4d1210h04,S4d1210h23,S4d1215h06,S4d1216h03,S4d1216h23,S4e1218h02,S4e1220h06,S4e1221h22,S4e1223h04,S4e1223h21,S2b0302h19,S2b0302h20,S2b0302h22,S4d1210h03,S4d1212h01,S4d1213h02,S4d1213h04,S4d1213h20,S4d1213h23,S4e1218h24,S4e1223h01,S4e1223h02,S1aH9,S4aH1,S4d1210h19,S4d1212h24,S4d1213h22,S4d1215h21,S4d1216h01,S4d1216h05,S4e1218h03,S4e1218h05,S4e1220h22,S4e1221h24,S4e1222h01,S4e1223h06,S4e1223h24,S1aH8,S2c0303h05,S4d1210h21,S4d1211h21,S4d1211h23,S4d1215h02,S4d1215h23,S4e1218h22,S4e1220h19,S4e1221h20,S4e1222h23,S2b0302h01,S3aH9,S4d1213h05,S4d1213h21,S4d1215h04,S4e1218h23,S4e1219h19,S4e1219h23,S4e1220h01,S4e1221h02,S4e1221h06,S2b0302h06,S2c0303h04,S4d1210h02,S4d1211h01,S4d1212h06,S4d1214h02,S4d1214h20,S4d1216h19,S4e1219h05,S4e1219h22,S4e1220h02,S4e1220h04,S4e1220h24,S4e1221h01,S4e1221h03,S4e1221h04,S4e1223h05,S2b0302h24,S2c0303h24,S4aH8,S4d1210h20,S4d1213h06,S4d1215h03,S4d1216h02,S4d1216h06,S4e1217h06,S4e1219h20,S4e1220h21,S4e1222h05,S4e1223h20,S2c0303h02,S2c0303h06,S3aH1,S4aH9,S4d1212h05,S4d1214h01,S4d1214h05,S4d1214h22,S4d1215h05,S4e1217h23,S4e1220h23,S4e1222h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S2b0302h19,S2b0302h20,S2b0302h22,S4d1210h03,S4d1212h01,S4d1213h02,S4d1213h04,S4d1213h20,S4d1213h23,S4e1218h24,S4e1223h01,S4e1223h02,S2b0302h24,S2c0303h24,S4aH8,S4d1210h20,S4d1213h06,S4d1215h03,S4d1216h02,S4d1216h06,S4e1217h06,S4e1219h20,S4e1220h21,S4e1222h05,S4e1223h20,S2b0302h21,S2c0303h19,S4d1211h22,S4d1213h03,S4d1214h04,S4d1215h19,S4d1215h22,S4e1217h04,S4e1217h21,S4e1218h01,S4e1219h01,S4e1219h24,S4e1220h20,S4e1223h19,S2c0303h03,S3aH8,S4d1210h04,S4d1210h23,S4d1215h06,S4d1216h03,S4d1216h23,S4e1218h02,S4e1220h06,S4e1221h22,S4e1223h04,S4e1223h21,S1aH1,S2b0302h02,S4d1210h24,S4d1211h03,S4d1211h04,S4d1211h20,S4d1215h20,S4e1218h06,S4e1218h20,S4e1219h04,S4e1219h21,S4e1220h05,S4e1222h02,S4e1222h04,S4e1222h21,S4e1223h03,S2b0302h04,S2c0303h21,S2c0303h22,S4d1212h19,S4d1212h20,S4d1212h21,S4d1213h24,S4d1214h03,S4d1215h24,S4e1217h19,S4e1217h22,S4e1221h19,S4e1221h21,S4e1222h20,S2c0303h20,S4d1213h19,S4d1214h06,S4d1214h23,S4d1216h04,S4e1217h24,S4e1221h05,S4e1222h03,S4e1223h22,S2b0302h01,S3aH9,S4d1213h05,S4d1213h21,S4d1215h04,S4e1218h23,S4e1219h19,S4e1219h23,S4e1220h01,S4e1221h02,S4e1221h06,S2aH8,S2b0302h03,S2c0303h23,S4d1210h05,S4d1210h22,S4d1211h24,S4d1212h03,S4d1214h21,S4d1216h22,S4d1216h24,S4e1217h03,S4e1217h05,S4e1217h20,S4e1218h04,S4e1219h03,S4e1220h03,S4e1222h06,S4e1222h24,S2b0302h06,S2c0303h04,S4d1210h02,S4d1211h01,S4d1212h06,S4d1214h02,S4d1214h20,S4d1216h19,S4e1219h05,S4e1219h22,S4e1220h02,S4e1220h04,S4e1220h24,S4e1221h01,S4e1221h03,S4e1221h04,S4e1223h05,S2c0303h02,S2c0303h06,S3aH1,S4aH9,S4d1212h05,S4d1214h01,S4d1214h05,S4d1214h22,S4d1215h05,S4e1217h23,S4e1220h23,S4e1222h19,S2aH1,S2aH9,S2b0302h23,S4d1211h06,S4d1212h23,S4d1213h01,S4d1214h19,S4d1214h24,S4d1216h21,S4e1217h02,S4e1222h22,S1aH9,S4aH1,S4d1210h19,S4d1212h24,S4d1213h22,S4d1215h21,S4d1216h01,S4d1216h05,S4e1218h03,S4e1218h05,S4e1220h22,S4e1221h24,S4e1222h01,S4e1223h06,S4e1223h24,S1aH8,S2c0303h05,S4d1210h21,S4d1211h21,S4d1211h23,S4d1215h02,S4d1215h23,S4e1218h22,S4e1220h19,S4e1221h20,S4e1222h23,S4d1211h05,S4d1212h02,S4d1212h04,S4d1215h01,S4e1217h01,S4e1219h06,S4e1221h23,S2b0302h05,S2c0303h01,S4d1210h01,S4d1210h06,S4d1211h02,S4d1211h19,S4d1212h22,S4d1216h20,S4e1218h19,S4e1218h21,S4e1219h02,S4e1223h23</v>
+        <v>S2aH8,S2b0302h03,S2c0303h23,S4d1210h05,S4d1210h22,S4d1211h24,S4d1212h03,S4d1214h21,S4d1216h22,S4d1216h24,S4e1217h03,S4e1217h05,S4e1217h20,S4e1218h04,S4e1219h03,S4e1220h03,S4e1222h06,S4e1222h24,S4d1211h05,S4d1212h02,S4d1212h04,S4d1215h01,S4e1217h01,S4e1219h06,S4e1221h23,S1aH1,S2b0302h02,S4d1210h24,S4d1211h03,S4d1211h04,S4d1211h20,S4d1215h20,S4e1218h06,S4e1218h20,S4e1219h04,S4e1219h21,S4e1220h05,S4e1222h02,S4e1222h04,S4e1222h21,S4e1223h03,S2aH1,S2aH9,S2b0302h23,S4d1211h06,S4d1212h23,S4d1213h01,S4d1214h19,S4d1214h24,S4d1216h21,S4e1217h02,S4e1222h22,S2c0303h20,S4d1213h19,S4d1214h06,S4d1214h23,S4d1216h04,S4e1217h24,S4e1221h05,S4e1222h03,S4e1223h22,S2b0302h21,S2c0303h19,S4d1211h22,S4d1213h03,S4d1214h04,S4d1215h19,S4d1215h22,S4e1217h04,S4e1217h21,S4e1218h01,S4e1219h01,S4e1219h24,S4e1220h20,S4e1223h19,S2b0302h05,S2c0303h01,S4d1210h01,S4d1210h06,S4d1211h02,S4d1211h19,S4d1212h22,S4d1216h20,S4e1218h19,S4e1218h21,S4e1219h02,S4e1223h23,S2b0302h04,S2c0303h21,S2c0303h22,S4d1212h19,S4d1212h20,S4d1212h21,S4d1213h24,S4d1214h03,S4d1215h24,S4e1217h19,S4e1217h22,S4e1221h19,S4e1221h21,S4e1222h20,S2c0303h03,S3aH8,S4d1210h04,S4d1210h23,S4d1215h06,S4d1216h03,S4d1216h23,S4e1218h02,S4e1220h06,S4e1221h22,S4e1223h04,S4e1223h21,S2b0302h19,S2b0302h20,S2b0302h22,S4d1210h03,S4d1212h01,S4d1213h02,S4d1213h04,S4d1213h20,S4d1213h23,S4e1218h24,S4e1223h01,S4e1223h02,S1aH9,S4aH1,S4d1210h19,S4d1212h24,S4d1213h22,S4d1215h21,S4d1216h01,S4d1216h05,S4e1218h03,S4e1218h05,S4e1220h22,S4e1221h24,S4e1222h01,S4e1223h06,S4e1223h24,S1aH8,S2c0303h05,S4d1210h21,S4d1211h21,S4d1211h23,S4d1215h02,S4d1215h23,S4e1218h22,S4e1220h19,S4e1221h20,S4e1222h23,S2b0302h01,S3aH9,S4d1213h05,S4d1213h21,S4d1215h04,S4e1218h23,S4e1219h19,S4e1219h23,S4e1220h01,S4e1221h02,S4e1221h06,S2b0302h06,S2c0303h04,S4d1210h02,S4d1211h01,S4d1212h06,S4d1214h02,S4d1214h20,S4d1216h19,S4e1219h05,S4e1219h22,S4e1220h02,S4e1220h04,S4e1220h24,S4e1221h01,S4e1221h03,S4e1221h04,S4e1223h05,S2b0302h24,S2c0303h24,S4aH8,S4d1210h20,S4d1213h06,S4d1215h03,S4d1216h02,S4d1216h06,S4e1217h06,S4e1219h20,S4e1220h21,S4e1222h05,S4e1223h20,S2c0303h02,S2c0303h06,S3aH1,S4aH9,S4d1212h05,S4d1214h01,S4d1214h05,S4d1214h22,S4d1215h05,S4e1217h23,S4e1220h23,S4e1222h19</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S1aH3,S2b0302h09,S2b0302h16,S4d1214h08,S4e1217h11,S4e1217h13,S4e1218h13,S4e1221h12,S4e1221h13,S4e1222h17,S2c0303h08,S4d1210h16,S4d1211h17,S4d1212h11,S4d1213h10,S4d1214h09,S4d1215h09,S4d1215h16,S4e1217h15,S4e1220h15,S4e1221h11,S4e1222h15,S1aH6,S2c0303h15,S4d1210h17,S4d1212h18,S4e1218h08,S4e1218h12,S4e1218h18,S4e1219h18,S4e1220h10,S4e1220h13,S2b0302h12,S3aH2,S4d1210h09,S4d1210h10,S4d1210h12,S4d1210h13,S4d1210h18,S4d1212h16,S4d1213h12,S4d1215h07,S4d1215h10,S4d1215h15,S4e1219h17,S4e1222h14,S2b0302h10,S2b0302h11,S4d1211h08,S4d1212h17,S4d1213h15,S4d1214h14,S4d1215h08,S4d1215h12,S4d1216h18,S4e1217h08,S4e1217h09,S4e1218h11,S4e1220h18,S4e1222h09,S1aH5,S2aH4,S2aH5,S4d1210h14,S4e1219h13,S4e1221h10,S4e1222h11,S2c0303h12,S3aH3,S4d1212h08,S4d1213h08,S4d1214h15,S4d1216h12,S4e1217h12,S4e1218h14,S4e1221h09,S4e1223h18,S2aH7,S3aH4,S4aH3,S4aH4,S4d1211h11,S4d1213h13,S4e1218h17,S4e1220h09,S4e1220h11,S4e1221h08,S4e1222h10,S4e1222h12,S4e1223h10,S2c0303h09,S2c0303h13,S2c0303h14,S3aH7,S4d1211h10,S4d1211h15,S4d1213h09,S4d1215h14,S4d1216h13,S4d1216h14,S4e1217h10,S4e1221h07,S4e1221h14,S4e1223h13,S1aH2,S1aH7,S2aH3,S2b0302h15,S2b0302h18,S3aH6,S4aH7,S4d1210h11,S4d1212h14,S4d1213h14,S4d1213h18,S4d1215h18,S4d1216h09,S4d1216h10,S4d1216h11,S4e1217h07,S4e1218h07,S4e1219h07,S4e1219h08,S4e1220h08,S4e1221h16,S2b0302h13,S2b0302h17,S2c0303h10,S4d1210h07,S4d1210h15,S4d1211h09,S4d1212h10,S4d1213h16,S4d1214h13,S4d1214h18,S4d1215h13,S4e1218h09,S4e1219h16,S4e1220h12,S2c0303h07,S2c0303h11,S4aH2,S4d1211h14,S4d1212h07,S4d1212h13,S4d1214h10,S4d1215h17,S4e1220h17,S1aH4,S2aH2,S2b0302h14,S4aH6,S4d1210h08,S4d1211h13,S4d1211h18,S4d1213h11,S4d1214h16,S4d1215h11,S4d1216h17,S4e1217h14,S4e1219h10,S4e1219h12,S4e1220h14,S4e1221h18,S4e1222h07,S4e1223h08,S4e1223h12,S4e1223h16,S2aH6,S2b0302h07,S2b0302h08,S2c0303h16,S3aH5,S4d1212h12,S4d1213h07,S4d1216h16,S4e1218h15,S4e1218h16,S4e1219h09,S4e1220h07,S4e1221h17,S4e1222h16,S4e1223h11,S2c0303h17,S4aH5,S4d1212h09,S4d1212h15,S4d1214h07,S4d1216h08,S4e1217h16,S4e1217h18,S4e1218h10,S4e1219h11,S4e1219h14,S4e1221h15,S4e1222h13,S4e1223h15,S4e1223h17,S2c0303h18,S4d1211h07,S4d1211h12,S4d1211h16,S4d1213h17,S4d1214h11,S4d1214h12,S4d1214h17,S4d1216h07,S4d1216h15,S4e1217h17,S4e1219h15,S4e1220h16,S4e1222h08,S4e1222h18,S4e1223h07,S4e1223h09,S4e1223h14</v>
+        <v>S2c0303h09,S2c0303h13,S2c0303h14,S3aH7,S4d1211h10,S4d1211h15,S4d1213h09,S4d1215h14,S4d1216h13,S4d1216h14,S4e1217h10,S4e1221h07,S4e1221h14,S4e1223h13,S2c0303h17,S4aH5,S4d1212h09,S4d1212h15,S4d1214h07,S4d1216h08,S4e1217h16,S4e1217h18,S4e1218h10,S4e1219h11,S4e1219h14,S4e1221h15,S4e1222h13,S4e1223h15,S4e1223h17,S2b0302h10,S2b0302h11,S4d1211h08,S4d1212h17,S4d1213h15,S4d1214h14,S4d1215h08,S4d1215h12,S4d1216h18,S4e1217h08,S4e1217h09,S4e1218h11,S4e1220h18,S4e1222h09,S2c0303h07,S2c0303h11,S4aH2,S4d1211h14,S4d1212h07,S4d1212h13,S4d1214h10,S4d1215h17,S4e1220h17,S2c0303h12,S3aH3,S4d1212h08,S4d1213h08,S4d1214h15,S4d1216h12,S4e1217h12,S4e1218h14,S4e1221h09,S4e1223h18,S1aH6,S2c0303h15,S4d1210h17,S4d1212h18,S4e1218h08,S4e1218h12,S4e1218h18,S4e1219h18,S4e1220h10,S4e1220h13,S2c0303h18,S4d1211h07,S4d1211h12,S4d1211h16,S4d1213h17,S4d1214h11,S4d1214h12,S4d1214h17,S4d1216h07,S4d1216h15,S4e1217h17,S4e1219h15,S4e1220h16,S4e1222h08,S4e1222h18,S4e1223h07,S4e1223h09,S4e1223h14,S1aH5,S2aH4,S2aH5,S4d1210h14,S4e1219h13,S4e1221h10,S4e1222h11,S2b0302h12,S3aH2,S4d1210h09,S4d1210h10,S4d1210h12,S4d1210h13,S4d1210h18,S4d1212h16,S4d1213h12,S4d1215h07,S4d1215h10,S4d1215h15,S4e1219h17,S4e1222h14,S1aH3,S2b0302h09,S2b0302h16,S4d1214h08,S4e1217h11,S4e1217h13,S4e1218h13,S4e1221h12,S4e1221h13,S4e1222h17,S1aH4,S2aH2,S2b0302h14,S4aH6,S4d1210h08,S4d1211h13,S4d1211h18,S4d1213h11,S4d1214h16,S4d1215h11,S4d1216h17,S4e1217h14,S4e1219h10,S4e1219h12,S4e1220h14,S4e1221h18,S4e1222h07,S4e1223h08,S4e1223h12,S4e1223h16,S2aH6,S2b0302h07,S2b0302h08,S2c0303h16,S3aH5,S4d1212h12,S4d1213h07,S4d1216h16,S4e1218h15,S4e1218h16,S4e1219h09,S4e1220h07,S4e1221h17,S4e1222h16,S4e1223h11,S2aH7,S3aH4,S4aH3,S4aH4,S4d1211h11,S4d1213h13,S4e1218h17,S4e1220h09,S4e1220h11,S4e1221h08,S4e1222h10,S4e1222h12,S4e1223h10,S1aH2,S1aH7,S2aH3,S2b0302h15,S2b0302h18,S3aH6,S4aH7,S4d1210h11,S4d1212h14,S4d1213h14,S4d1213h18,S4d1215h18,S4d1216h09,S4d1216h10,S4d1216h11,S4e1217h07,S4e1218h07,S4e1219h07,S4e1219h08,S4e1220h08,S4e1221h16,S2c0303h08,S4d1210h16,S4d1211h17,S4d1212h11,S4d1213h10,S4d1214h09,S4d1215h09,S4d1215h16,S4e1217h15,S4e1220h15,S4e1221h11,S4e1222h15,S2b0302h13,S2b0302h17,S2c0303h10,S4d1210h07,S4d1210h15,S4d1211h09,S4d1212h10,S4d1213h16,S4d1214h13,S4d1214h18,S4d1215h13,S4e1218h09,S4e1219h16,S4e1220h12</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -3273,7 +3273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E4E895-C4D5-464B-82DE-A19146F235ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02FFD3C-E82F-405E-9C20-93E3AA684A99}">
   <dimension ref="A9:AM850"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3496,10 +3496,10 @@
         <v>0.19756037558773065</v>
       </c>
       <c r="AK11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AL11">
-        <v>0.63152479942420459</v>
+        <v>0.21508075954190395</v>
       </c>
       <c r="AM11" t="s">
         <v>866</v>
@@ -3588,10 +3588,10 @@
         <v>5.3223687573688006E-2</v>
       </c>
       <c r="AK12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AL12">
-        <v>0.11644615677723913</v>
+        <v>0.23694828425665235</v>
       </c>
       <c r="AM12" t="s">
         <v>866</v>
@@ -3680,10 +3680,10 @@
         <v>4.9864854453449015E-2</v>
       </c>
       <c r="AK13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AL13">
-        <v>0.21508075954190392</v>
+        <v>0.11644615677723914</v>
       </c>
       <c r="AM13" t="s">
         <v>866</v>
@@ -3772,10 +3772,10 @@
         <v>0.15832017615902494</v>
       </c>
       <c r="AK14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AL14">
-        <v>0.23694828425665232</v>
+        <v>0.6315247994242047</v>
       </c>
       <c r="AM14" t="s">
         <v>866</v>
